--- a/PIT/PIT Next Version Features.xlsx
+++ b/PIT/PIT Next Version Features.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owalsh01\IdeaProjects\paye-employers-documentation\src\main\resources\PIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5157827-4B43-4117-BDE0-A28A227A9BEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIT Next Version Features" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PIT Next Version Features'!$B$1:$J$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PIT Next Version Features'!$B$1:$J$30</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Issue Reference</t>
   </si>
@@ -99,12 +100,42 @@
   </si>
   <si>
     <t>Cessation Date now returned for the CSV response of an RPN lookup</t>
+  </si>
+  <si>
+    <t>ESEHTWO-941</t>
+  </si>
+  <si>
+    <t>Pay Period added to Payroll Schema</t>
+  </si>
+  <si>
+    <t>This field is manditory for 2020 submissions and will be used by Revenue PAYE services to assist with the accuracy of in-year reconciliations for Employees which are performed to determine if tax credits/rate bands are allocated to best effect.</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>In Development</t>
+  </si>
+  <si>
+    <t>ESEHTWO-1046</t>
+  </si>
+  <si>
+    <t>RPN Schema updated to make USC fields Mandatory</t>
+  </si>
+  <si>
+    <t>The payForUSCToDate and uscDeducted fields are now mandatory on 2020 RPN responses. If no value is present, zero will be returned.</t>
+  </si>
+  <si>
+    <t>Expected 10/10/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,6 +268,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -620,7 +654,7 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>02/09/2019</a:t>
+            <a:t>07/10/2019</a:t>
           </a:r>
           <a:endParaRPr lang="en-IE" sz="1100">
             <a:effectLst/>
@@ -931,14 +965,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,13 +1387,59 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="H30" s="7"/>
+    <row r="29" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>

--- a/PIT/PIT Next Version Features.xlsx
+++ b/PIT/PIT Next Version Features.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owalsh01\IdeaProjects\paye-employers-documentation\src\main\resources\PIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5157827-4B43-4117-BDE0-A28A227A9BEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BC179-5599-4A34-B7D6-51293264E19E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="720" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIT Next Version Features" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PIT Next Version Features'!$B$1:$J$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PIT Next Version Features'!$B$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Issue Reference</t>
   </si>
@@ -45,22 +45,10 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>REST &amp; SOAP</t>
-  </si>
-  <si>
-    <t>RPN</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>ESEHTWO-601</t>
-  </si>
-  <si>
-    <t>ESEHTWO-136</t>
   </si>
   <si>
     <t>Description</t>
@@ -69,67 +57,10 @@
     <t>Scheduled Release</t>
   </si>
   <si>
-    <t>PIT Next Version</t>
+    <t>N/A</t>
   </si>
   <si>
-    <t>ESEHTWO-137</t>
-  </si>
-  <si>
-    <t>Cessation Date Field Added to CSV</t>
-  </si>
-  <si>
-    <t>Cessation Date Field Added to RPN Schema</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cessation Date now returned for a lookup RPN function </t>
-  </si>
-  <si>
-    <t>Lookup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is now possible to lookup a specific Employees RPN without specifying the employment ID. </t>
-  </si>
-  <si>
-    <t>New RPN lookup parameter PPSN</t>
-  </si>
-  <si>
-    <t>Cessation Date now returned for the CSV response of an RPN lookup</t>
-  </si>
-  <si>
-    <t>ESEHTWO-941</t>
-  </si>
-  <si>
-    <t>Pay Period added to Payroll Schema</t>
-  </si>
-  <si>
-    <t>This field is manditory for 2020 submissions and will be used by Revenue PAYE services to assist with the accuracy of in-year reconciliations for Employees which are performed to determine if tax credits/rate bands are allocated to best effect.</t>
-  </si>
-  <si>
-    <t>Submission</t>
-  </si>
-  <si>
-    <t>Payroll</t>
-  </si>
-  <si>
-    <t>In Development</t>
-  </si>
-  <si>
-    <t>ESEHTWO-1046</t>
-  </si>
-  <si>
-    <t>RPN Schema updated to make USC fields Mandatory</t>
-  </si>
-  <si>
-    <t>The payForUSCToDate and uscDeducted fields are now mandatory on 2020 RPN responses. If no value is present, zero will be returned.</t>
-  </si>
-  <si>
-    <t>Expected 10/10/2019</t>
+    <t>There are no current differences between PIT3 &amp; PIT4</t>
   </si>
 </sst>
 </file>
@@ -215,21 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -264,20 +186,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -654,7 +593,7 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>07/10/2019</a:t>
+            <a:t>02/03/2020</a:t>
           </a:r>
           <a:endParaRPr lang="en-IE" sz="1100">
             <a:effectLst/>
@@ -969,10 +908,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,507 +919,402 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="4" customWidth="1"/>
     <col min="10" max="10" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:17" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="H25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="I25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="19">
-        <v>43792</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="19">
-        <v>43792</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="19">
-        <v>43792</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="4"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="2"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H32" s="7"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="7"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="7"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="7"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="7"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="7"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="7"/>
+      <c r="H38" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B26 B28">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="duplicateValues" dxfId="4" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/PIT/PIT Next Version Features.xlsx
+++ b/PIT/PIT Next Version Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BC179-5599-4A34-B7D6-51293264E19E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE1930-A15D-46AD-993C-4C9F70B3A0D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="720" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Issue Reference</t>
   </si>
@@ -54,29 +54,36 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Scheduled Release</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>There are no current differences between PIT3 &amp; PIT4</t>
+    <t>PMPOS-563</t>
+  </si>
+  <si>
+    <t>RPN</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>USC rate bands updated</t>
+  </si>
+  <si>
+    <t>USC rate bands have been adjusted following the increase in minimum wage.</t>
+  </si>
+  <si>
+    <t>Scheduled Release To Live</t>
+  </si>
+  <si>
+    <t>Released in PIT4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,19 +159,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -180,28 +184,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <strike/>
@@ -264,7 +266,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="726621" y="228600"/>
-          <a:ext cx="11053083" cy="4321326"/>
+          <a:ext cx="11284404" cy="4321326"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="9880600" cy="3903723"/>
         </a:xfrm>
@@ -312,7 +314,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Features in PIT4</a:t>
             </a:r>
             <a:endParaRPr lang="en-IE" sz="1200">
               <a:effectLst/>
@@ -911,7 +913,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,327 +921,327 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:17" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="H25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1248,26 +1250,32 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="14">
+        <v>43904</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="J26" s="2"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1305,7 +1313,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="4" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>

--- a/PIT/PIT Next Version Features.xlsx
+++ b/PIT/PIT Next Version Features.xlsx
@@ -8,27 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE1930-A15D-46AD-993C-4C9F70B3A0D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ADC29E-1D33-40B0-B2C7-9D5456B5C2CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="720" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIT Next Version Features" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PIT Next Version Features'!$B$1:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PIT Next Version Features'!$B$1:$J$27</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Issue Reference</t>
   </si>
@@ -76,6 +82,24 @@
   </si>
   <si>
     <t>Released in PIT4</t>
+  </si>
+  <si>
+    <t>Soap &amp; Rest</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>Payslip</t>
+  </si>
+  <si>
+    <t>Other payments field added to the payslip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The other payments field has been added as an optional field to the payslip. This is to facilitate covid-19 payments that are not added as a gross amount. </t>
+  </si>
+  <si>
+    <t>PMSR-4306</t>
   </si>
 </sst>
 </file>
@@ -153,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -198,6 +222,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +628,7 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>02/03/2020</a:t>
+            <a:t>30/03/2020</a:t>
           </a:r>
           <a:endParaRPr lang="en-IE" sz="1100">
             <a:effectLst/>
@@ -913,7 +946,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,9 +1307,32 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="H27" s="4"/>
+    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="19">
+        <v>43922</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
@@ -1326,7 +1382,7 @@
   </conditionalFormatting>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PIT/PIT Next Version Features.xlsx
+++ b/PIT/PIT Next Version Features.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\paye-employers-documentation\src\main\resources\PIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLab\DOCUMENTATION\src\main\resources\PIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ADC29E-1D33-40B0-B2C7-9D5456B5C2CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{273B0A4C-BC24-41A0-B1EF-5071B96C6BF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIT Next Version Features" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PIT Next Version Features'!$B$1:$J$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PIT Next Version Features'!$B$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Issue Reference</t>
   </si>
@@ -82,24 +82,6 @@
   </si>
   <si>
     <t>Released in PIT4</t>
-  </si>
-  <si>
-    <t>Soap &amp; Rest</t>
-  </si>
-  <si>
-    <t>Payroll</t>
-  </si>
-  <si>
-    <t>Payslip</t>
-  </si>
-  <si>
-    <t>Other payments field added to the payslip.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The other payments field has been added as an optional field to the payslip. This is to facilitate covid-19 payments that are not added as a gross amount. </t>
-  </si>
-  <si>
-    <t>PMSR-4306</t>
   </si>
 </sst>
 </file>
@@ -177,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -222,15 +204,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +601,7 @@
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>30/03/2020</a:t>
+            <a:t>29/05/2020</a:t>
           </a:r>
           <a:endParaRPr lang="en-IE" sz="1100">
             <a:effectLst/>
@@ -943,10 +916,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1222,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
@@ -1307,32 +1280,8 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="19">
-        <v>43922</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="2"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
@@ -1363,9 +1312,6 @@
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B26">
